--- a/Documentation/copodigamingtm - CRPR lijst - AO - COHORT sXpX  - ict college.xlsx
+++ b/Documentation/copodigamingtm - CRPR lijst - AO - COHORT sXpX  - ict college.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Protask2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66664C6-DA64-41CB-8985-1D5541AF3CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2BE57C-3CC9-44DA-AB52-139E4A60A38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>IPC
 (IS, PR, CR)</t>
@@ -115,6 +115,39 @@
   </si>
   <si>
     <t>geen stats en niet alle abilities zoals we wouden</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>16-01-20220</t>
+  </si>
+  <si>
+    <t>mulitplayer functionaliteit toevoegen</t>
+  </si>
+  <si>
+    <t>marijn</t>
+  </si>
+  <si>
+    <t>kosten 16000</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>16-01-202</t>
+  </si>
+  <si>
+    <t>enemies moet weg gaan na dood gaan in gevecht</t>
+  </si>
+  <si>
+    <t>gemert</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>1 uurtje</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1082,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,16 +1219,58 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2100,6 +2175,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a78f7f205666631896ccc567e32c6b00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80e6bfcb799af84af64f4714b87a75c5" ns2:_="" ns3:_="">
     <xsd:import namespace="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
@@ -2316,17 +2402,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FB374C-C505-4CA2-B4A2-69D21E0EECC9}">
   <ds:schemaRefs>
@@ -2336,6 +2411,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47304BC8-09B1-4CF3-8AEB-ED507FB2BAEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46CC72C3-C8ED-4639-BDB2-0DAD4E9E792E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2352,15 +2438,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47304BC8-09B1-4CF3-8AEB-ED507FB2BAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>